--- a/Sprint2/USBD11/Dataset normalizado.xlsx
+++ b/Sprint2/USBD11/Dataset normalizado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Documentos\bddad2024\Sprint2\USBD11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6480BCD2-68DF-4E2C-AF80-2D984730EC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD895AC-8872-472B-8032-A7AE976F5638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="700" firstSheet="4" activeTab="7" xr2:uid="{96054C54-0AC6-4E0E-AB4B-5CA509897BDA}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="237">
   <si>
     <t>Name</t>
   </si>
@@ -798,16 +798,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2923,7 +2920,7 @@
         <v>162</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D7" si="0">"INSERT INTO ProductFamily(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES(" &amp; A3 &amp; ", '" &amp; B3 &amp; "');"</f>
+        <f t="shared" ref="D3:D6" si="0">"INSERT INTO ProductFamily(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES(" &amp; A3 &amp; ", '" &amp; B3 &amp; "');"</f>
         <v>INSERT INTO ProductFamily(Id,Name) VALUES(130, 'La Belle pots');</v>
       </c>
     </row>
@@ -4532,8 +4529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629B436D-7E6F-45CD-A274-6E2AE1A9129E}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4556,75 +4553,75 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>184</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>184</v>
       </c>
       <c r="D2" t="str">
         <f>"INSERT INTO BOO(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A2 &amp; "', '" &amp; B2 &amp; "');"</f>
-        <v>INSERT INTO BOO(Id,ProductId) VALUES('AS12946S22', 'AS12946S22');</v>
+        <v>INSERT INTO BOO(Id,ProductId) VALUES('1', 'AS12946S22');</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>185</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>185</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D7" si="0">"INSERT INTO BOO(" &amp; $A$1 &amp; "," &amp; $B$1 &amp; ") VALUES('" &amp; A3 &amp; "', '" &amp; B3 &amp; "');"</f>
-        <v>INSERT INTO BOO(Id,ProductId) VALUES('AS12947S22', 'AS12947S22');</v>
+        <v>INSERT INTO BOO(Id,ProductId) VALUES('2', 'AS12947S22');</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO BOO(Id,ProductId) VALUES('AS12945S22', 'AS12945S22');</v>
+        <v>INSERT INTO BOO(Id,ProductId) VALUES('3', 'AS12945S22');</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>186</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>186</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO BOO(Id,ProductId) VALUES('AS12946S20', 'AS12946S20');</v>
+        <v>INSERT INTO BOO(Id,ProductId) VALUES('4', 'AS12946S20');</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>187</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>187</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO BOO(Id,ProductId) VALUES('AS12947S20', 'AS12947S20');</v>
+        <v>INSERT INTO BOO(Id,ProductId) VALUES('5', 'AS12947S20');</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO BOO(Id,ProductId) VALUES('AS12945S20', 'AS12945S20');</v>
+        <v>INSERT INTO BOO(Id,ProductId) VALUES('6', 'AS12945S20');</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -4651,597 +4648,597 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>100</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>5647</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>103</v>
       </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
         <v>5</v>
       </c>
       <c r="I11" t="str">
         <f>"INSERT INTO Operation(" &amp; $A$10 &amp; "," &amp; $B$10 &amp; "," &amp; $C$10 &amp; "," &amp; $D$10 &amp; "," &amp; $E$10 &amp; "," &amp; $F$10 &amp; "," &amp; $G$10 &amp; ") VALUES(" &amp; A11 &amp; ", " &amp; B11 &amp; ", '" &amp; C11 &amp; "', '" &amp; D11 &amp; "', " &amp; E11 &amp; ", " &amp; F11 &amp; ", " &amp; G11 &amp; ");"</f>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(100, 5647, 'AS12946S22', 'IP12945A01', 103, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(100, 5647, '1', 'IP12945A01', 103, 1, 5);</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>103</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5649</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>112</v>
       </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
         <v>5</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ref="I12:I32" si="1">"INSERT INTO Operation(" &amp; $A$10 &amp; "," &amp; $B$10 &amp; "," &amp; $C$10 &amp; "," &amp; $D$10 &amp; "," &amp; $E$10 &amp; "," &amp; $F$10 &amp; "," &amp; $G$10 &amp; ") VALUES(" &amp; A12 &amp; ", " &amp; B12 &amp; ", '" &amp; C12 &amp; "', '" &amp; D12 &amp; "', " &amp; E12 &amp; ", " &amp; F12 &amp; ", " &amp; G12 &amp; ");"</f>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(103, 5649, 'AS12946S22', 'IP12945A02', 112, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(103, 5649, '1', 'IP12945A02', 112, 1, 5);</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>112</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>5651</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>114</v>
       </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(112, 5651, 'AS12946S22', 'IP12945A03', 114, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(112, 5651, '1', 'IP12945A03', 114, 1, 5);</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>114</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>5653</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>115</v>
       </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
         <v>5</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(114, 5653, 'AS12946S22', 'IP12945A04', 115, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(114, 5653, '1', 'IP12945A04', 115, 1, 5);</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>115</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>5659</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
         <v>5</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(115, 5659, 'AS12946S22', 'AS12946S22', NULL, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(115, 5659, '1', 'AS12946S22', NULL, 1, 5);</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>120</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>5647</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>121</v>
       </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
         <v>5</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(120, 5647, 'AS12947S22', 'IP12947A01', 121, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(120, 5647, '2', 'IP12947A01', 121, 1, 5);</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>121</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>5655</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>122</v>
       </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
         <v>5</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(121, 5655, 'AS12947S22', 'IP12947A02', 122, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(121, 5655, '2', 'IP12947A02', 122, 1, 5);</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>122</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>5657</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>123</v>
       </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
         <v>5</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(122, 5657, 'AS12947S22', 'IP12947A03', 123, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(122, 5657, '2', 'IP12947A03', 123, 1, 5);</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>123</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>5661</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>124</v>
       </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
         <v>5</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(123, 5661, 'AS12947S22', 'IP12947A04', 124, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(123, 5661, '2', 'IP12947A04', 124, 1, 5);</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>124</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>5667</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
         <v>5</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(124, 5667, 'AS12947S22', 'AS12947S22', NULL, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(124, 5667, '2', 'AS12947S22', NULL, 1, 5);</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>130</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>5663</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
         <v>5</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(130, 5663, 'AS12945S22', 'AS12945S22', NULL, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(130, 5663, '3', 'AS12945S22', NULL, 1, 5);</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>150</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>5647</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>151</v>
       </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
         <v>5</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(150, 5647, 'AS12946S20', 'IP12945A01', 151, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(150, 5647, '4', 'IP12945A01', 151, 1, 5);</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>151</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>5649</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>152</v>
       </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
         <v>5</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(151, 5649, 'AS12946S20', 'IP12945A32', 152, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(151, 5649, '4', 'IP12945A32', 152, 1, 5);</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>152</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>5651</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>153</v>
       </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
         <v>5</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(152, 5651, 'AS12946S20', 'IP12945A33', 153, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(152, 5651, '4', 'IP12945A33', 153, 1, 5);</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>153</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>5653</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>154</v>
       </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
         <v>5</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(153, 5653, 'AS12946S20', 'IP12945A34', 154, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(153, 5653, '4', 'IP12945A34', 154, 1, 5);</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>154</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>5659</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
         <v>5</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(154, 5659, 'AS12946S20', 'AS12946S20', NULL, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(154, 5659, '4', 'AS12946S20', NULL, 1, 5);</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>160</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>5647</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>161</v>
       </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
         <v>5</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(160, 5647, 'AS12947S20', 'IP12947A01', 161, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(160, 5647, '5', 'IP12947A01', 161, 1, 5);</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>161</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>5655</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>162</v>
       </c>
-      <c r="F28" s="5">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
         <v>5</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(161, 5655, 'AS12947S20', 'IP12947A32', 162, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(161, 5655, '5', 'IP12947A32', 162, 1, 5);</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>162</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>5657</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="4">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>163</v>
       </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
         <v>5</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(162, 5657, 'AS12947S20', 'IP12947A33', 163, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(162, 5657, '5', 'IP12947A33', 163, 1, 5);</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>163</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>5661</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="4">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>164</v>
       </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
         <v>5</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(163, 5661, 'AS12947S20', 'IP12947A34', 164, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(163, 5661, '5', 'IP12947A34', 164, 1, 5);</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>164</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>5667</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
         <v>5</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(164, 5667, 'AS12947S20', 'AS12947S20', NULL, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(164, 5667, '5', 'AS12947S20', NULL, 1, 5);</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>170</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>5663</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
         <v>5</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(170, 5663, 'AS12945S20', 'AS12945S20', NULL, 1, 5);</v>
+        <v>INSERT INTO Operation(Id,OperationTypeId,BOOId,PartOutput,NextOp,OutputQuantity,OutputMeasurementUnitId) VALUES(170, 5663, '6', 'AS12945S20', NULL, 1, 5);</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5259,615 +5256,615 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>100</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
         <v>5</v>
       </c>
       <c r="F36" t="str">
-        <f>"INSERT INTO OperationInput(" &amp; $A$35&amp; "," &amp; $B$35 &amp; "," &amp; $C$35 &amp; "," &amp; $F$35 &amp; ") VALUES('" &amp; A36 &amp; "', '" &amp; B36 &amp; "', '" &amp; C36 &amp; "', '" &amp; D36 &amp; "');"</f>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('100', 'PN52384R50', '1', '5');</v>
+        <f>"INSERT INTO OperationInput(" &amp; $A$35&amp; "," &amp; $B$35 &amp; "," &amp; $C$35 &amp; "," &amp; $D$35 &amp; ") VALUES('" &amp; A36 &amp; "', '" &amp; B36 &amp; "', '" &amp; C36 &amp; "', '" &amp; D36 &amp; "');"</f>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('100', 'PN52384R50', '1', '5');</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>103</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
         <v>5</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" ref="F37:F69" si="2">"INSERT INTO OperationInput(" &amp; $A$35&amp; "," &amp; $B$35 &amp; "," &amp; $C$35 &amp; "," &amp; $F$35 &amp; ") VALUES('" &amp; A37 &amp; "', '" &amp; B37 &amp; "', '" &amp; C37 &amp; "', '" &amp; D37 &amp; "');"</f>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('103', 'IP12945A01', '1', '5');</v>
+        <f t="shared" ref="F37:F69" si="2">"INSERT INTO OperationInput(" &amp; $A$35&amp; "," &amp; $B$35 &amp; "," &amp; $C$35 &amp; "," &amp; $D$35 &amp; ") VALUES('" &amp; A37 &amp; "', '" &amp; B37 &amp; "', '" &amp; C37 &amp; "', '" &amp; D37 &amp; "');"</f>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('103', 'IP12945A01', '1', '5');</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>103</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C38" s="5">
-        <v>5</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C38" s="4">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4">
         <v>4</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('103', 'PN94561L67', '5', '4');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('103', 'PN94561L67', '5', '4');</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>112</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4">
         <v>5</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('112', 'IP12945A02', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('112', 'IP12945A02', '1', '5');</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>112</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="5">
-        <v>5</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C40" s="4">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4">
         <v>4</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('112', 'PN94561L67', '5', '4');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('112', 'PN94561L67', '5', '4');</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>114</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4">
         <v>5</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('114', 'IP12945A03', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('114', 'IP12945A03', '1', '5');</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>115</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="5">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
         <v>5</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('115', 'IP12945A04', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('115', 'IP12945A04', '1', '5');</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>115</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>2</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>5</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('115', 'PN18544C21', '2', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('115', 'PN18544C21', '2', '5');</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>120</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4">
         <v>5</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('120', 'PN52384R10', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('120', 'PN52384R10', '1', '5');</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>121</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
         <v>5</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('121', 'IP12947A01', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('121', 'IP12947A01', '1', '5');</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>121</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C46" s="5">
-        <v>5</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C46" s="4">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4">
         <v>4</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('121', 'PN94561L67', '5', '4');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('121', 'PN94561L67', '5', '4');</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>122</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
         <v>5</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('122', 'IP12947A02', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('122', 'IP12947A02', '1', '5');</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>123</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="5">
-        <v>1</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
         <v>5</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('123', 'IP12947A03', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('123', 'IP12947A03', '1', '5');</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>123</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="5">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
         <v>5</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('123', 'PN18324C54', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('123', 'PN18324C54', '1', '5');</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>124</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
         <v>5</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('124', 'IP12947A04', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('124', 'IP12947A04', '1', '5');</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>130</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
         <v>5</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('130', 'AS12947S22', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('130', 'AS12947S22', '1', '5');</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>130</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
         <v>5</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('130', 'AS12946S22', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('130', 'AS12946S22', '1', '5');</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>150</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="4">
         <v>5</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('150', 'PN52384R50', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('150', 'PN52384R50', '1', '5');</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>151</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="5">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="4">
         <v>5</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('151', 'IP12945A01', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('151', 'IP12945A01', '1', '5');</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>151</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="5">
-        <v>5</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="C55" s="4">
+        <v>5</v>
+      </c>
+      <c r="D55" s="4">
         <v>4</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('151', 'PN94561L67', '5', '4');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('151', 'PN94561L67', '5', '4');</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>152</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="4">
         <v>5</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('152', 'IP12945A32', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('152', 'IP12945A32', '1', '5');</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>152</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C57" s="5">
-        <v>5</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C57" s="4">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4">
         <v>4</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('152', 'PN94561L67', '5', '4');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('152', 'PN94561L67', '5', '4');</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>153</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="5">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
         <v>5</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('153', 'IP12945A33', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('153', 'IP12945A33', '1', '5');</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>154</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C59" s="5">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
         <v>5</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('154', 'IP12945A34', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('154', 'IP12945A34', '1', '5');</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>154</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>2</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>5</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('154', 'PN18544C21', '2', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('154', 'PN18544C21', '2', '5');</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>160</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="5">
-        <v>1</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4">
         <v>5</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('160', 'PN52384R10', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('160', 'PN52384R10', '1', '5');</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>161</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="5">
-        <v>1</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4">
         <v>5</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('161', 'IP12947A01', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('161', 'IP12947A01', '1', '5');</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>161</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="5">
-        <v>5</v>
-      </c>
-      <c r="D63" s="5">
+      <c r="C63" s="4">
+        <v>5</v>
+      </c>
+      <c r="D63" s="4">
         <v>4</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('161', 'PN94561L67', '5', '4');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('161', 'PN94561L67', '5', '4');</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>162</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="5">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5">
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="D64" s="4">
         <v>5</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('162', 'IP12947A32', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('162', 'IP12947A32', '1', '5');</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>163</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="5">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5">
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
         <v>5</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('163', 'IP12947A33', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('163', 'IP12947A33', '1', '5');</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>163</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5">
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="4">
         <v>5</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('163', 'PN18324C51', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('163', 'PN18324C51', '1', '5');</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>164</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="5">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4">
         <v>5</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('164', 'IP12947A34', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('164', 'IP12947A34', '1', '5');</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>170</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="5">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4">
         <v>5</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('170', 'AS12946S20', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('170', 'AS12946S20', '1', '5');</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>170</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C69" s="5">
-        <v>1</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4">
         <v>5</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,) VALUES('170', 'AS12947S20', '1', '5');</v>
+        <v>INSERT INTO OperationInput(OperationId,PartId,Quantity,MeasurementUnitId) VALUES('170', 'AS12947S20', '1', '5');</v>
       </c>
     </row>
   </sheetData>
